--- a/biology/Botanique/Commelina/Commelina.xlsx
+++ b/biology/Botanique/Commelina/Commelina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commelina est un genre de plantes à fleur appartenant à la famille des Commelinaceae. Il comprend à peu près 170 espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commelina est un genre de plantes à fleur appartenant à la famille des Commelinaceae. Il comprend à peu près 170 espèces.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés, espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 septembre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 septembre 2017) :
 Commelina acutispatha De Wild.
 Commelina acutissima Urb.
 Commelina africana L.
@@ -738,7 +754,7 @@
 Commelina zenkeri C.B.Clarke
 Commelina zeylanica Falkenb.
 Commelina zigzag P.A.Duvign. &amp; Dewit
-Selon ITIS      (23 septembre 2017)[4] :
+Selon ITIS      (23 septembre 2017) :
 Commelina benghalensis L.
 Commelina caroliniana Walter
 Commelina coelestis Willd.
@@ -753,7 +769,7 @@
 Commelina rufipes Seub.
 Commelina tuberosa L.
 Commelina virginica L.
-Selon NCBI  (23 septembre 2017)[5] :
+Selon NCBI  (23 septembre 2017) :
 Commelina africana
 variété Commelina africana var. villosior
 Commelina benghalensis
@@ -781,7 +797,7 @@
 Commelina schliebenii
 Commelina virginica
 Commelina welwitschii
-Selon The Plant List            (23 septembre 2017)[6] :
+Selon The Plant List            (23 septembre 2017) :
 Commelina acutispatha De Wild.
 Commelina acutissima Urb.
 Commelina africana L.
@@ -997,7 +1013,7 @@
 Commelina zenkeri C.B.Clarke
 Commelina zeylanica Falkenb.
 Commelina zigzag P.A.Duvign. &amp; Dewit
-Selon Tropicos                                           (23 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Commelina acuminata (R. Br.) Poir.
 Commelina acutispatha De Wild.
 Commelina acutissima Urb.
